--- a/git_tips.xlsx
+++ b/git_tips.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>●Gitで管理する</t>
     <rPh sb="5" eb="7">
@@ -50,16 +50,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>●stage環境にあげる場合</t>
-    <rPh sb="6" eb="8">
-      <t>カンキョウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>git add ファイル名</t>
     <rPh sb="12" eb="13">
       <t>メイ</t>
@@ -67,7 +57,48 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ｓｃｄ</t>
+    <t>git status</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>状態を確認する</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>git diff --staged</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>stage環境にあげたファイルの変更箇所を表示</t>
+    <rPh sb="5" eb="7">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カショ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●インデックスにあげる場合</t>
+    <rPh sb="11" eb="13">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ﾛｰｶﾙﾘﾎﾟｼﾞﾄﾘへのコミット</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -135,6 +166,66 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>30182</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="図 17" descr="http://kray.jp/wp/wp-content/uploads/2013/08/git_why02.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6457950" y="219076"/>
+          <a:ext cx="3248025" cy="3068656"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -425,10 +516,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B2:B16"/>
+  <dimension ref="B2:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -436,44 +527,68 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H4"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B14" s="1" t="s">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B16" s="1" t="s">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B17" s="1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B19" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B20" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B26" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/git_tips.xlsx
+++ b/git_tips.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="git" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>●Gitで管理する</t>
     <rPh sb="5" eb="7">
@@ -98,7 +98,103 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ﾛｰｶﾙﾘﾎﾟｼﾞﾄﾘへのコミット</t>
+    <t>git commit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>git push -u origin master</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>git remote add origin &lt;URL&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;URL&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Git Hub で作成したリポジトリの管理画面で Clone or Downlload でPath が手に入る</t>
+    <rPh sb="9" eb="11">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※リモートへpush出来ない場合(github)</t>
+    <rPh sb="10" eb="12">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>git merge --allow-unrelated-histories origin/master</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↑上記リモートリポジトリへのpush が失敗した場合に</t>
+    <rPh sb="1" eb="3">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設定する</t>
+    <rPh sb="0" eb="2">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●ﾛｰｶﾙﾘﾎﾟｼﾞﾄﾘへのコミット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●リモートリポジトリへのpush</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●git hub を使用する上での初期設定</t>
+    <rPh sb="10" eb="12">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●リモートリポジトリの設定</t>
+    <rPh sb="11" eb="13">
+      <t>セッテイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -516,10 +612,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B2:H26"/>
+  <dimension ref="B2:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -565,24 +661,74 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B20" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B28" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="H30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B32" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H36" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H38" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H39" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
